--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="13320"/>
+    <workbookView windowWidth="28695" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
     <sheet name="项目节点管理" sheetId="5" r:id="rId2"/>
     <sheet name="唐僧保3.3" sheetId="2" r:id="rId3"/>
     <sheet name="深爱保2.0" sheetId="3" r:id="rId4"/>
-    <sheet name="开发团队" sheetId="4" r:id="rId5"/>
+    <sheet name="深爱保2.1" sheetId="6" r:id="rId5"/>
+    <sheet name="开发团队" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">唐僧保3.3!$E$4</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>排期日期</t>
   </si>
@@ -314,6 +315,12 @@
     <t>(8) 一保到位对接</t>
   </si>
   <si>
+    <t>(9) 小雨伞五款cps合作产品的详情页面 - A端</t>
+  </si>
+  <si>
+    <t>周二至周四</t>
+  </si>
+  <si>
     <t>项目节点管理</t>
   </si>
   <si>
@@ -429,6 +436,12 @@
   </si>
   <si>
     <t>移动端官网以及资源服务器搬迁 - 解决音频流量过大</t>
+  </si>
+  <si>
+    <t>此版本为深爱保微信网页版</t>
+  </si>
+  <si>
+    <t>小雨伞五款cps合作产品的详情页面 - A端</t>
   </si>
   <si>
     <t>3+2+1模式</t>
@@ -451,9 +464,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -516,6 +529,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,6 +550,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -538,7 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +581,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -561,14 +589,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -583,16 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +630,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,37 +659,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +700,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,90 +850,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -807,7 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,49 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,32 +1008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,6 +1019,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,6 +1047,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1064,13 +1073,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,148 +1107,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,6 +1292,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,9 +1355,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,9 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,7 +1448,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1715,28 +1728,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD69"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
     <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.88" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.88" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
     <col min="11" max="11" width="8.4" customWidth="1"/>
     <col min="12" max="14" width="6.2" customWidth="1"/>
-    <col min="18" max="18" width="17.13" customWidth="1"/>
+    <col min="18" max="18" width="17.1333333333333" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1784,7 +1797,7 @@
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -1800,27 +1813,27 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="F7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="6:19">
+    <row r="8" ht="15.75" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1846,29 +1859,29 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="35" t="s">
+      <c r="J9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -1891,17 +1904,17 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6"/>
@@ -1913,19 +1926,19 @@
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="34" t="s">
+      <c r="J11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1939,20 +1952,20 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="26" t="s">
+      <c r="J12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="6"/>
@@ -1963,19 +1976,19 @@
       <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="36" t="s">
+      <c r="J13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1989,7 +2002,7 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6"/>
@@ -2000,7 +2013,7 @@
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="6"/>
-      <c r="J15" s="26"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2036,7 +2049,7 @@
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="6"/>
@@ -2054,7 +2067,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="6"/>
@@ -2072,7 +2085,7 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="6"/>
@@ -2087,13 +2100,13 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
@@ -2106,7 +2119,7 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="15"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
@@ -2122,7 +2135,7 @@
       <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2139,7 +2152,7 @@
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2159,7 +2172,7 @@
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="6"/>
@@ -2177,7 +2190,7 @@
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="6"/>
@@ -2195,10 +2208,10 @@
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="23" t="s">
+      <c r="D34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2206,7 +2219,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2215,7 +2228,7 @@
       <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2233,7 +2246,7 @@
       <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
@@ -2241,7 +2254,7 @@
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="13"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -2253,7 +2266,7 @@
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2270,7 +2283,7 @@
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
@@ -2287,12 +2300,12 @@
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2301,41 +2314,41 @@
       <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="9:14">
-      <c r="I49" s="28" t="s">
+      <c r="D46" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="9:14">
+      <c r="I49" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="30" t="s">
+      <c r="J49" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="31" t="s">
+      <c r="L49" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="37"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="24" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="11" t="s">
@@ -2349,24 +2362,24 @@
       <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="34" t="s">
+      <c r="J51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2378,19 +2391,19 @@
       <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="38" t="s">
+      <c r="J52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2398,19 +2411,19 @@
       <c r="I53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="34" t="s">
+      <c r="J53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2427,37 +2440,37 @@
       <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="9:14">
+      <c r="J54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="9:14">
       <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>21</v>
+      <c r="J55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="N55" s="39" t="s">
         <v>21</v>
@@ -2478,7 +2491,7 @@
       <c r="A57" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2519,7 +2532,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2569,6 +2582,17 @@
       </c>
       <c r="C69" s="6" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2604,7 +2628,7 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
@@ -2616,101 +2640,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="17">
+        <v>86</v>
+      </c>
+      <c r="B3" s="19">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="18">
+        <v>90</v>
+      </c>
+      <c r="H3" s="20">
         <v>43317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="17">
+        <v>91</v>
+      </c>
+      <c r="B4" s="19">
         <v>43313</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="H4" s="20">
         <v>43317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="17">
+        <v>93</v>
+      </c>
+      <c r="B5" s="19">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2723,15 +2747,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
@@ -2742,22 +2766,22 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="16.13" customWidth="1"/>
-    <col min="15" max="15" width="19.13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -2771,16 +2795,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2788,23 +2812,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2812,43 +2836,43 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>108</v>
+      <c r="B8" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>111</v>
+      <c r="B10" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -2862,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -2876,10 +2900,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -2893,10 +2917,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -2907,10 +2931,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2926,16 +2950,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2943,7 +2987,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43318</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F7"/>
   <sheetViews>
@@ -2951,20 +3053,20 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.88" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.88" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.88" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2980,15 +3082,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3001,7 +3103,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="23730" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
     <sheet name="项目节点管理" sheetId="5" r:id="rId2"/>
     <sheet name="唐僧保3.3" sheetId="2" r:id="rId3"/>
-    <sheet name="深爱保2.0" sheetId="3" r:id="rId4"/>
-    <sheet name="深爱保2.1" sheetId="6" r:id="rId5"/>
-    <sheet name="开发团队" sheetId="4" r:id="rId6"/>
+    <sheet name="唐僧保3.4" sheetId="7" r:id="rId4"/>
+    <sheet name="深爱保2.0" sheetId="3" r:id="rId5"/>
+    <sheet name="深爱保2.1" sheetId="6" r:id="rId6"/>
+    <sheet name="开发团队" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">唐僧保3.3!$E$4</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>排期日期</t>
   </si>
@@ -438,6 +439,12 @@
     <t>移动端官网以及资源服务器搬迁 - 解决音频流量过大</t>
   </si>
   <si>
+    <t>标准版下单、增强版体检通过之后15天内没有支付就关闭订单</t>
+  </si>
+  <si>
+    <t>2018.8.6</t>
+  </si>
+  <si>
     <t>此版本为深爱保微信网页版</t>
   </si>
   <si>
@@ -465,9 +472,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -529,7 +536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,21 +546,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,19 +564,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,9 +586,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +619,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,15 +656,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,16 +672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +701,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,85 +851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,85 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,10 +915,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -934,26 +961,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1008,26 +1015,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1063,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1073,32 +1101,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,148 +1114,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,25 +1272,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1292,10 +1299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,27 +1329,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,18 +1374,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1379,60 +1386,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1448,7 +1455,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1732,18 +1739,18 @@
   <sheetPr/>
   <dimension ref="A1:XFD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" style="8" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.8833333333333" style="8" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
@@ -1754,72 +1761,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1"/>
+    <row r="3" s="8" customFormat="1"/>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="15"/>
       <c r="F7"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="15.75" spans="6:19">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="6:19">
       <c r="F8"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="8"/>
       <c r="I8" s="26"/>
       <c r="J8" s="27" t="s">
         <v>11</v>
@@ -1833,7 +1840,7 @@
       <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1849,401 +1856,401 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" ht="14.25" spans="1:19">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="8"/>
+      <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="36" t="s">
+      <c r="J9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" ht="14.25" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="8"/>
+      <c r="I10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="7:14">
-      <c r="G11" s="6"/>
-      <c r="I11" s="5" t="s">
+      <c r="J10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="7:14">
+      <c r="G11" s="8"/>
+      <c r="I11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="J11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:14">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="8"/>
+      <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="7:14">
-      <c r="G13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="J12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="7:14">
+      <c r="G13" s="8"/>
+      <c r="I13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:11">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="7:10">
-      <c r="G15" s="6"/>
-      <c r="J15" s="28"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" ht="14.25" spans="7:10">
+      <c r="G15" s="8"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="4:7">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="14.25" spans="4:7">
       <c r="D24" s="15"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="15" spans="1:7">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="15" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="6"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="23" t="s">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2253,17 +2260,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" ht="14.25" spans="4:4">
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2277,10 +2284,10 @@
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -2290,186 +2297,186 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="14.25" spans="1:4">
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="23" t="s">
+    <row r="46" ht="14.25" spans="1:4">
+      <c r="A46" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="9:14">
-      <c r="I49" s="30" t="s">
+    <row r="49" ht="16.5" spans="9:14">
+      <c r="I49" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="32" t="s">
+      <c r="J49" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="32"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="24" t="s">
+      <c r="I50" s="7"/>
+      <c r="J50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="24" t="s">
+      <c r="L50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="24" t="s">
+      <c r="M50" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="6" t="s">
+    <row r="51" ht="14.25" spans="1:14">
+      <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="J51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:14">
       <c r="A52" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="9:14">
-      <c r="I53" s="5" t="s">
+      <c r="J52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="9:14">
+      <c r="I53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="J53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:14">
       <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="9:14">
-      <c r="I55" s="7" t="s">
+      <c r="J54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="9:14">
+      <c r="I55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="29" t="s">
+      <c r="J55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="32" t="s">
         <v>12</v>
       </c>
       <c r="N55" s="39" t="s">
@@ -2480,10 +2487,10 @@
       <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2491,10 +2498,10 @@
       <c r="A57" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2502,10 +2509,10 @@
       <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2513,10 +2520,10 @@
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2524,24 +2531,24 @@
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2549,13 +2556,13 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2563,13 +2570,13 @@
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2577,10 +2584,10 @@
       <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2588,10 +2595,10 @@
       <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2628,14 +2635,14 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13" style="8" customWidth="1"/>
     <col min="4" max="4" width="45.2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="7" width="10.6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" customWidth="1"/>
+    <col min="6" max="7" width="10.6" style="8" customWidth="1"/>
     <col min="8" max="8" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2652,28 +2659,28 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2684,16 +2691,16 @@
       <c r="B3" s="19">
         <v>43313</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="20">
@@ -2707,16 +2714,16 @@
       <c r="B4" s="19">
         <v>43313</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="20">
@@ -2730,7 +2737,7 @@
       <c r="B5" s="19">
         <v>43306</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D5" t="s">
@@ -2755,43 +2762,43 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
-    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.2" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.2" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.6" customWidth="1"/>
     <col min="6" max="6" width="52.6" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.1333333333333" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2800,7 +2807,7 @@
       <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F2" t="s">
@@ -2808,115 +2815,115 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>105</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="9:9">
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="9:9">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="6"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="6"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="6"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F16" t="s">
@@ -2924,16 +2931,16 @@
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="6"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2952,29 +2959,98 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="55.125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="14" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1"/>
+    <row r="4" s="14" customFormat="1"/>
+    <row r="5" s="14" customFormat="1"/>
+    <row r="6" s="14" customFormat="1"/>
+    <row r="7" s="14" customFormat="1"/>
+    <row r="8" s="14" customFormat="1"/>
+    <row r="9" s="14" customFormat="1"/>
+    <row r="10" s="14" customFormat="1"/>
+    <row r="11" s="14" customFormat="1"/>
+    <row r="12" s="14" customFormat="1"/>
+    <row r="13" s="14" customFormat="1"/>
+    <row r="14" s="14" customFormat="1"/>
+    <row r="15" s="14" customFormat="1"/>
+    <row r="16" s="14" customFormat="1"/>
+    <row r="17" s="14" customFormat="1"/>
+    <row r="18" s="14" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2986,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2995,46 +3071,46 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="14">
+        <v>120</v>
+      </c>
+      <c r="C2" s="13">
         <v>43318</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3044,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F7"/>
@@ -3053,7 +3129,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -3066,64 +3142,64 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11" t="s">
-        <v>123</v>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
   </sheetData>

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>排期日期</t>
   </si>
@@ -445,6 +445,9 @@
     <t>2018.8.6</t>
   </si>
   <si>
+    <t>投保攻略——攻略/定期寿险的头图链接跳的是旧的定寿聚合页，改为新的定寿聚合页</t>
+  </si>
+  <si>
     <t>此版本为深爱保微信网页版</t>
   </si>
   <si>
@@ -471,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -542,30 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +555,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -609,7 +598,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -619,9 +614,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,29 +675,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -701,49 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,37 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +740,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,18 +885,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1025,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1032,6 +1050,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,62 +1106,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1117,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1129,133 +1132,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,7 +1306,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2962,7 +2965,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2972,7 +2975,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:6">
+    <row r="1" s="8" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
@@ -2992,33 +2995,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:3">
-      <c r="A2" s="14">
+    <row r="2" s="8" customFormat="1" spans="1:3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1"/>
-    <row r="4" s="14" customFormat="1"/>
-    <row r="5" s="14" customFormat="1"/>
-    <row r="6" s="14" customFormat="1"/>
-    <row r="7" s="14" customFormat="1"/>
-    <row r="8" s="14" customFormat="1"/>
-    <row r="9" s="14" customFormat="1"/>
-    <row r="10" s="14" customFormat="1"/>
-    <row r="11" s="14" customFormat="1"/>
-    <row r="12" s="14" customFormat="1"/>
-    <row r="13" s="14" customFormat="1"/>
-    <row r="14" s="14" customFormat="1"/>
-    <row r="15" s="14" customFormat="1"/>
-    <row r="16" s="14" customFormat="1"/>
-    <row r="17" s="14" customFormat="1"/>
-    <row r="18" s="14" customFormat="1"/>
+    <row r="3" s="8" customFormat="1" ht="27" spans="1:3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1"/>
+    <row r="5" s="8" customFormat="1"/>
+    <row r="6" s="8" customFormat="1"/>
+    <row r="7" s="8" customFormat="1"/>
+    <row r="8" s="8" customFormat="1"/>
+    <row r="9" s="8" customFormat="1"/>
+    <row r="10" s="8" customFormat="1"/>
+    <row r="11" s="8" customFormat="1"/>
+    <row r="12" s="8" customFormat="1"/>
+    <row r="13" s="8" customFormat="1"/>
+    <row r="14" s="8" customFormat="1"/>
+    <row r="15" s="8" customFormat="1"/>
+    <row r="16" s="8" customFormat="1"/>
+    <row r="17" s="8" customFormat="1"/>
+    <row r="18" s="8" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3038,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3105,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
@@ -3142,7 +3155,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3158,15 +3171,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3179,7 +3192,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>排期日期</t>
   </si>
@@ -439,6 +439,9 @@
     <t>移动端官网以及资源服务器搬迁 - 解决音频流量过大</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>标准版下单、增强版体检通过之后15天内没有支付就关闭订单</t>
   </si>
   <si>
@@ -446,6 +449,30 @@
   </si>
   <si>
     <t>投保攻略——攻略/定期寿险的头图链接跳的是旧的定寿聚合页，改为新的定寿聚合页</t>
+  </si>
+  <si>
+    <t>618活动奖品发放短信</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保622活动奖品现已发放，共200元京东E卡，请复制密码至京东兑换：039C-E056-BFEB-B02B，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保623活动奖品现已发放，共500元京东E卡，请复制密码至京东兑换：1CF6-F2D1-0BC3-C5B8，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保624活动奖品现已发放，共100元京东E卡，请复制密码至京东兑换：650E-246F-EB54-69B3，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保625活动奖品现已发放，共100元京东E卡，请复制密码至京东兑换：C506-9AEA-F369-9714，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保626活动奖品现已发放，共100元京东E卡，请复制密码至京东兑换：2A02-2213-E542-9FDF，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保627活动奖品现已发放，共500元京东E卡，请复制密码至京东兑换：D097-5CB3-C127-B4C0，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
+  </si>
+  <si>
+    <t>你好，恭喜你参加唐僧保626活动奖品现已发放，共100元京东E卡，请复制密码至京东兑换：0002-2003-E540-9F00，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
   </si>
   <si>
     <t>此版本为深爱保微信网页版</t>
@@ -474,12 +501,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +516,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -539,82 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,18 +595,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,7 +627,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,6 +665,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +738,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,25 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +846,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,37 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,49 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,26 +1073,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,6 +1093,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,8 +1141,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,137 +1166,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,16 +1342,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1326,12 +1366,12 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,46 +1390,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,7 +1847,7 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -1823,39 +1863,39 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="17"/>
       <c r="F7"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="16.5" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="8"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="41" t="s">
+      <c r="Q8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1869,29 +1909,29 @@
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="8"/>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="31" t="s">
+      <c r="J9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -1914,17 +1954,17 @@
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="8"/>
       <c r="I10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="8"/>
@@ -1936,19 +1976,19 @@
       <c r="I11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="30" t="s">
+      <c r="J11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1962,20 +2002,20 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="8"/>
       <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="29" t="s">
+      <c r="J12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="8"/>
@@ -1986,19 +2026,19 @@
       <c r="I13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="33" t="s">
+      <c r="J13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2012,7 +2052,7 @@
       <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="8"/>
@@ -2023,7 +2063,7 @@
     </row>
     <row r="15" ht="14.25" spans="7:10">
       <c r="G15" s="8"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2059,7 +2099,7 @@
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="8"/>
@@ -2077,7 +2117,7 @@
       <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="8"/>
@@ -2095,7 +2135,7 @@
       <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="8"/>
@@ -2110,13 +2150,13 @@
       <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" ht="14.25" spans="4:7">
-      <c r="D24" s="15"/>
+      <c r="D24" s="17"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
@@ -2129,7 +2169,7 @@
       <c r="C25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="17"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="7:7">
@@ -2145,7 +2185,7 @@
       <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -2162,7 +2202,7 @@
       <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2182,7 +2222,7 @@
       <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="8"/>
@@ -2200,7 +2240,7 @@
       <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="8"/>
@@ -2218,10 +2258,10 @@
       <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="23" t="s">
+      <c r="D34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2229,7 +2269,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2238,7 +2278,7 @@
       <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -2256,7 +2296,7 @@
       <c r="C38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
@@ -2264,7 +2304,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="4:4">
-      <c r="D39" s="15"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -2276,7 +2316,7 @@
       <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2293,7 +2333,7 @@
       <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
@@ -2310,12 +2350,12 @@
       <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2324,41 +2364,41 @@
       <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="9:14">
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="36" t="s">
+      <c r="J49" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="L50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="M50" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="9" t="s">
@@ -2372,24 +2412,24 @@
       <c r="I51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="30" t="s">
+      <c r="J51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:14">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2401,19 +2441,19 @@
       <c r="I52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="30" t="s">
+      <c r="J52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2421,19 +2461,19 @@
       <c r="I53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="30" t="s">
+      <c r="J53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2450,19 +2490,19 @@
       <c r="I54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="30" t="s">
+      <c r="J54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2470,19 +2510,19 @@
       <c r="I55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="39" t="s">
+      <c r="J55" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2501,7 +2541,7 @@
       <c r="A57" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -2542,7 +2582,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -2650,16 +2690,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -2691,7 +2731,7 @@
       <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="21">
         <v>43313</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2706,7 +2746,7 @@
       <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="22">
         <v>43317</v>
       </c>
     </row>
@@ -2714,7 +2754,7 @@
       <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="21">
         <v>43313</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2729,7 +2769,7 @@
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <v>43317</v>
       </c>
     </row>
@@ -2737,7 +2777,7 @@
       <c r="A5" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>43306</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2807,7 +2847,7 @@
       <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2833,8 +2873,8 @@
       <c r="I4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="8" t="s">
@@ -2864,7 +2904,7 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2881,7 +2921,7 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2962,20 +3002,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="55.125" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="3" max="4" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:6">
+    <row r="1" s="8" customFormat="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
@@ -2986,44 +3028,114 @@
         <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:3">
+    <row r="2" s="8" customFormat="1" ht="20" customHeight="1" spans="1:4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="27" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="27" spans="1:4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1"/>
-    <row r="5" s="8" customFormat="1"/>
-    <row r="6" s="8" customFormat="1"/>
-    <row r="7" s="8" customFormat="1"/>
-    <row r="8" s="8" customFormat="1"/>
-    <row r="9" s="8" customFormat="1"/>
-    <row r="10" s="8" customFormat="1"/>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="56" customHeight="1" spans="1:8">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>15915823936</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G5" s="15">
+        <v>13671563507</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G6" s="15">
+        <v>18012080269</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G7" s="15">
+        <v>18718572110</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G8" s="15">
+        <v>13601039240</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G9" s="15">
+        <v>13810327823</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="40.5" spans="7:8">
+      <c r="G10" s="15">
+        <v>18718678563</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="11" s="8" customFormat="1"/>
     <row r="12" s="8" customFormat="1"/>
     <row r="13" s="8" customFormat="1"/>
@@ -3051,7 +3163,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3118,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
@@ -3155,7 +3267,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3171,15 +3283,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3192,7 +3304,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23730" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>排期日期</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>待排期</t>
+  </si>
+  <si>
+    <t>延期</t>
+  </si>
+  <si>
+    <t>※</t>
   </si>
   <si>
     <t>2018年08月06日 至 2018年08月10日</t>
@@ -501,10 +507,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -516,13 +522,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -559,6 +558,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="4"/>
@@ -573,32 +578,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,7 +607,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -626,8 +622,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,13 +678,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,10 +691,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,47 +707,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +749,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,145 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,30 +957,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -998,6 +983,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1052,8 +1057,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,9 +1113,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,192 +1151,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,25 +1314,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1342,147 +1347,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1498,7 +1509,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1782,18 +1793,18 @@
   <sheetPr/>
   <dimension ref="A1:XFD71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.8833333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
@@ -1804,116 +1815,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1"/>
+    <row r="3" s="6" customFormat="1"/>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:7">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="17"/>
       <c r="F7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="16.5" spans="6:19">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="15.75" spans="6:19">
       <c r="F8"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29" t="s">
+      <c r="G8" s="6"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="43" t="s">
+      <c r="Q8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:19">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="6"/>
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="31" t="s">
@@ -1928,37 +1939,37 @@
       <c r="M9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="33" t="s">
+      <c r="N9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:14">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="6"/>
+      <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="31" t="s">
@@ -1967,13 +1978,13 @@
       <c r="K10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" ht="14.25" spans="7:14">
-      <c r="G11" s="8"/>
-      <c r="I11" s="7" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="7:14">
+      <c r="G11" s="6"/>
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -1988,25 +1999,25 @@
       <c r="M11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
+      <c r="N11" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="I12" s="7" t="s">
+      <c r="G12" s="6"/>
+      <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -2018,282 +2029,282 @@
       <c r="L12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" ht="14.25" spans="7:14">
-      <c r="G13" s="8"/>
-      <c r="I13" s="10" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="7:14">
+      <c r="G13" s="6"/>
+      <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:11">
+      <c r="J13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" ht="14.25" spans="7:10">
-      <c r="G15" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="G15" s="6"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="14.25" spans="4:7">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="4:7">
       <c r="D24" s="17"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="15" spans="1:7">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="8"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:7">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="26" t="s">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -2303,17 +2314,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="4:4">
+    <row r="39" spans="4:4">
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -2327,10 +2338,10 @@
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2340,55 +2351,59 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="9:14">
-      <c r="I49" s="36" t="s">
+    <row r="49" ht="15.75" spans="9:14">
+      <c r="I49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="38" t="s">
+      <c r="J49" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="40"/>
+      <c r="M49" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="27" t="s">
         <v>11</v>
       </c>
@@ -2401,15 +2416,15 @@
       <c r="M50" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:14">
-      <c r="A51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="7" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="31" t="s">
@@ -2424,72 +2439,78 @@
       <c r="M51" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:14">
+      <c r="N51" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="I52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14">
+      <c r="I53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="9:14">
-      <c r="I53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:14">
-      <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J54" s="31" t="s">
         <v>12</v>
       </c>
@@ -2502,147 +2523,150 @@
       <c r="M54" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N54" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="9:14">
-      <c r="I55" s="10" t="s">
+      <c r="N54" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="9:14">
+      <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="41" t="s">
+      <c r="J55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>71</v>
+      <c r="F65" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>77</v>
+      <c r="C71" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2680,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D54 D61 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42">
@@ -2678,20 +2702,20 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
     <col min="4" max="4" width="45.2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="8" customWidth="1"/>
-    <col min="6" max="7" width="10.6" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="6" max="7" width="10.6" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2702,49 +2726,49 @@
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="21">
         <v>43313</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>87</v>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>90</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="H3" s="22">
         <v>43317</v>
@@ -2752,22 +2776,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="21">
         <v>43313</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H4" s="22">
         <v>43317</v>
@@ -2775,16 +2799,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="21">
         <v>43306</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>94</v>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2805,186 +2829,186 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
-    <col min="3" max="3" width="15.6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.2" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.2" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.6" customWidth="1"/>
     <col min="6" max="6" width="52.6" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.1333333333333" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>101</v>
+      <c r="E2" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="9:9">
-      <c r="I5" s="8" t="s">
-        <v>106</v>
+      <c r="I5" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="9:9">
-      <c r="I7" s="8" t="s">
-        <v>109</v>
+      <c r="I7" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>101</v>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="8"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3004,11 +3028,11 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="55.125" customWidth="1"/>
     <col min="3" max="4" width="20.875" customWidth="1"/>
@@ -3017,133 +3041,133 @@
     <col min="8" max="8" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="8">
+    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="27" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" s="6" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="8">
+        <v>122</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="56" customHeight="1" spans="1:8">
-      <c r="A4" s="8">
+    <row r="4" s="6" customFormat="1" ht="56" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="G4" s="15">
         <v>15915823936</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G5" s="15">
         <v>13671563507</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G6" s="15">
         <v>18012080269</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G7" s="15">
         <v>18718572110</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G8" s="15">
         <v>13601039240</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G9" s="15">
         <v>13810327823</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="40.5" spans="7:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="42.75" spans="7:8">
       <c r="G10" s="15">
         <v>18718678563</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1"/>
-    <row r="12" s="8" customFormat="1"/>
-    <row r="13" s="8" customFormat="1"/>
-    <row r="14" s="8" customFormat="1"/>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="8" customFormat="1"/>
-    <row r="17" s="8" customFormat="1"/>
-    <row r="18" s="8" customFormat="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1"/>
+    <row r="12" s="6" customFormat="1"/>
+    <row r="13" s="6" customFormat="1"/>
+    <row r="14" s="6" customFormat="1"/>
+    <row r="15" s="6" customFormat="1"/>
+    <row r="16" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3159,23 +3183,23 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3196,46 +3220,46 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3254,7 +3278,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -3267,64 +3291,64 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>135</v>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="12"/>
     </row>
   </sheetData>

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>排期日期</t>
   </si>
@@ -475,6 +475,12 @@
     <t>你好，恭喜你参加唐僧保626活动奖品现已发放，共100元京东E卡，请复制密码至京东兑换：0002-2003-E540-9F00，如有多个请多次兑换，京东E卡兑换使用方法可在唐僧保客服号获得</t>
   </si>
   <si>
+    <t>信诚受益人信息错误修改短信</t>
+  </si>
+  <si>
+    <t>2018.8.7</t>
+  </si>
+  <si>
     <t>此版本为深爱保微信网页版</t>
   </si>
   <si>
@@ -501,12 +507,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,13 +522,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -573,6 +572,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -594,11 +623,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,6 +657,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,66 +699,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,20 +710,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +761,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +857,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,49 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,85 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1051,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1073,15 +1096,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1097,17 +1111,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,15 +1145,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,133 +1165,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,94 +1341,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3005,7 +3004,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3079,7 +3078,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <v>15915823936</v>
@@ -3136,7 +3135,20 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1"/>
+    <row r="11" s="8" customFormat="1" spans="1:4">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" s="8" customFormat="1"/>
     <row r="13" s="8" customFormat="1"/>
     <row r="14" s="8" customFormat="1"/>
@@ -3163,7 +3175,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3230,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
@@ -3267,7 +3279,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3283,15 +3295,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3304,7 +3316,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23730" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>排期日期</t>
   </si>
@@ -259,6 +259,9 @@
     <t>(2) 联调并校验深爱报所有接口</t>
   </si>
   <si>
+    <t>(2) 配置深爱保1.0的入口至深爱保2.0</t>
+  </si>
+  <si>
     <t>(3) 深爱保页面查漏不缺、联调接口以及问题修补</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
   </si>
   <si>
     <t>(6) 补充深爱保上线以及唐僧保V3.3更新资料</t>
+  </si>
+  <si>
+    <t>延迟至周三</t>
   </si>
   <si>
     <r>
@@ -507,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -578,6 +584,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -592,26 +620,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,15 +643,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +684,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,21 +692,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,9 +705,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,30 +722,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,13 +749,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,49 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,25 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,25 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,49 +905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,30 +963,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1003,6 +989,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1057,7 +1063,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1067,7 +1084,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,17 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1113,11 +1119,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,17 +1149,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,152 +1162,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,123 +1320,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1443,60 +1443,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1512,7 +1512,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1794,20 +1794,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD71"/>
+  <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.8833333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
@@ -1818,461 +1818,461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1"/>
+    <row r="3" s="6" customFormat="1"/>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:7">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18"/>
       <c r="F7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="16.5" spans="6:19">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="15.75" spans="6:19">
       <c r="F8"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32" t="s">
+      <c r="G8" s="6"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="46" t="s">
+      <c r="Q8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="S8" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:19">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="I9" s="7" t="s">
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="36" t="s">
+      <c r="J9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:14">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" ht="14.25" spans="7:14">
-      <c r="G11" s="8"/>
-      <c r="I11" s="7" t="s">
+      <c r="J10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="7:14">
+      <c r="G11" s="6"/>
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
+      <c r="J11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="I12" s="7" t="s">
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" ht="14.25" spans="7:14">
-      <c r="G13" s="8"/>
-      <c r="I13" s="10" t="s">
+      <c r="J12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="7:14">
+      <c r="G13" s="6"/>
+      <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:11">
+      <c r="J13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" ht="14.25" spans="7:10">
-      <c r="G15" s="8"/>
-      <c r="J15" s="34"/>
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="G15" s="6"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="D20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
+      <c r="D22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="14.25" spans="4:7">
-      <c r="D24" s="20"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
+      <c r="D23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="18"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="18"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="15" spans="1:7">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="8"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:7">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="8"/>
+      <c r="D32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="28" t="s">
@@ -2280,57 +2280,57 @@
       </c>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="29" t="s">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="D36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="4:4">
-      <c r="D39" s="20"/>
+    <row r="39" spans="4:4">
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2341,322 +2341,364 @@
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="29" t="s">
+      <c r="D44" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="9:14">
-      <c r="I49" s="39" t="s">
+      <c r="D46" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="9:14">
+      <c r="I49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="41" t="s">
+      <c r="J49" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="42" t="s">
+      <c r="L49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="43"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="41"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="30" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="30" t="s">
+      <c r="K50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="30" t="s">
+      <c r="M50" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:14">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:14">
-      <c r="A52" s="21" t="s">
+      <c r="J51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="D52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="9:14">
-      <c r="I53" s="7" t="s">
+      <c r="J52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14">
+      <c r="I53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:14">
+      <c r="J53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="D54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="9:14">
-      <c r="I55" s="10" t="s">
+      <c r="J54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:14">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="44" t="s">
+      <c r="J55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="8" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="30" t="s">
+      <c r="D57" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="D58" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="D60" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="8" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="D64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="8" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>77</v>
+      <c r="C72" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2712,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D64 D66 D67 D68 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42">
@@ -2692,113 +2734,113 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
     <col min="4" max="4" width="45.2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="8" customWidth="1"/>
-    <col min="6" max="7" width="10.6" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="6" max="7" width="10.6" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="24">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22">
         <v>43313</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>87</v>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="25">
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="23">
         <v>43317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="24">
+        <v>93</v>
+      </c>
+      <c r="B4" s="22">
         <v>43313</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>43317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="24">
+        <v>95</v>
+      </c>
+      <c r="B5" s="22">
         <v>43306</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>94</v>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2819,186 +2861,186 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
-    <col min="3" max="3" width="15.6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.2" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.2" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.6" customWidth="1"/>
     <col min="6" max="6" width="52.6" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.1333333333333" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="9:9">
+      <c r="I5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="9:9">
-      <c r="I5" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>108</v>
+      <c r="I6" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="9:9">
-      <c r="I7" s="8" t="s">
-        <v>109</v>
+      <c r="I7" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>111</v>
+      <c r="B8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>101</v>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="8"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3064,7 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="55.125" customWidth="1"/>
     <col min="3" max="4" width="20.875" customWidth="1"/>
@@ -3031,115 +3073,115 @@
     <col min="8" max="8" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="8">
+    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="27" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" s="6" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A4" s="8">
+    <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="23" customHeight="1" spans="1:5">
-      <c r="A5" s="8">
+      <c r="E4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="23" customHeight="1" spans="1:5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="38" customHeight="1" spans="1:8">
-      <c r="A6" s="8">
+      <c r="E5" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="38" customHeight="1" spans="1:8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" s="8" customFormat="1"/>
-    <row r="8" s="8" customFormat="1"/>
-    <row r="9" s="8" customFormat="1"/>
-    <row r="10" s="8" customFormat="1"/>
-    <row r="11" s="8" customFormat="1"/>
-    <row r="12" s="8" customFormat="1"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" s="6" customFormat="1"/>
+    <row r="8" s="6" customFormat="1"/>
+    <row r="9" s="6" customFormat="1"/>
+    <row r="10" s="6" customFormat="1"/>
+    <row r="11" s="6" customFormat="1"/>
+    <row r="12" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3155,7 +3197,7 @@
       <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
@@ -3163,71 +3205,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="5:7">
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="5:7">
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="5:7">
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="16"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3244,118 +3286,118 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" ht="42.75" spans="1:4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="8">
+    <row r="4" ht="28.5" spans="1:4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:4">
-      <c r="A5" s="8">
+    <row r="5" ht="28.5" spans="1:4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="1:4">
-      <c r="A7" s="8">
+    <row r="7" ht="71.25" spans="1:4">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
@@ -3376,7 +3418,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -3389,64 +3431,64 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>137</v>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="12"/>
     </row>
   </sheetData>

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="28660" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>排期日期</t>
   </si>
@@ -265,7 +265,7 @@
     <t>(3) 深爱保页面查漏不缺、联调接口以及问题修补</t>
   </si>
   <si>
-    <t>(4) 找新良、老石核对校验结算程序的准确性</t>
+    <t>(4) 找新良、老石核对校验推广费结算程序的准确性</t>
   </si>
   <si>
     <t>(5) 神策埋点补充</t>
@@ -328,6 +328,78 @@
     <t>周二至周四</t>
   </si>
   <si>
+    <t>(10) 更新A端以及C端系统</t>
+  </si>
+  <si>
+    <t>周五以及周六晚</t>
+  </si>
+  <si>
+    <t>(11) 618短信</t>
+  </si>
+  <si>
+    <t>(12) 深爱保客服以及理赔模块修改</t>
+  </si>
+  <si>
+    <t>2018年08月03日 至 2018年08月17日</t>
+  </si>
+  <si>
+    <t>(1) 康乐B产品前端投保全流程开发工作</t>
+  </si>
+  <si>
+    <t>(2) 康乐C产品前端投保全流程开发工作</t>
+  </si>
+  <si>
+    <t>周三至周四</t>
+  </si>
+  <si>
+    <t>(3) 乐享产品前端投保全流程开发工作</t>
+  </si>
+  <si>
+    <t>(4) 康乐、乐享产品前端接口以及联调</t>
+  </si>
+  <si>
+    <t>周一至周四</t>
+  </si>
+  <si>
+    <t>(5) 结算明细里保费下方加一行投保人的显示 - 前端</t>
+  </si>
+  <si>
+    <t>(5) 结算明细里保费下方加一行投保人的显示 - 后端</t>
+  </si>
+  <si>
+    <t>(6) 深爱保暂不可提现添加明细列表 - 前端</t>
+  </si>
+  <si>
+    <t>(6) 深爱保暂不可提现添加明细列表 - 后端</t>
+  </si>
+  <si>
+    <t>柯达</t>
+  </si>
+  <si>
+    <t>(7) 客户体检完可支付时通知提醒代理人，让代理人指引客户付费</t>
+  </si>
+  <si>
+    <t>(8) 慕再增值服务，一个帐号有几张保单就可以享受几次服务，可以自由选择某一张保单的服务 - 后端接口</t>
+  </si>
+  <si>
+    <r>
+      <t>(9) 一保到位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准版对接接口</t>
+    </r>
+  </si>
+  <si>
+    <t>(10) 定时关闭贞爱订单</t>
+  </si>
+  <si>
     <t>项目节点管理</t>
   </si>
   <si>
@@ -376,10 +448,16 @@
     <t>唐僧保V3.3</t>
   </si>
   <si>
-    <t>待UAT测试</t>
-  </si>
-  <si>
-    <t>已开发完，8月7号晚更新</t>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>更新至生产</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>深爱保V2.0</t>
   </si>
   <si>
     <t>序项</t>
@@ -397,9 +475,6 @@
     <t>非代理渠道投保增强版隐藏【居住地址无法选择】字段</t>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>加急处理，已更新线上</t>
   </si>
   <si>
@@ -427,19 +502,25 @@
     <t>之前的保单身份证选长期是错误的，短信通知客户修改</t>
   </si>
   <si>
+    <t>客服与信诚校验抽样数据，待信诚反馈后再发送</t>
+  </si>
+  <si>
     <t>开发完成</t>
   </si>
   <si>
-    <t>客服与信诚校验抽样数据，待信诚反馈后再发送</t>
-  </si>
-  <si>
     <t>受益人选择出生证，默认长期，无需选择证件有效期</t>
   </si>
   <si>
+    <t>待更新</t>
+  </si>
+  <si>
     <t>关于我们页面优化</t>
   </si>
   <si>
     <t>初级预警系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 非代理渠道投保增强版隐藏【居住地址无法选择】字段</t>
   </si>
   <si>
     <t>移动端官网以及资源服务器搬迁 - 解决音频流量过大</t>
@@ -513,12 +594,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +620,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -591,7 +679,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,85 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,29 +809,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +837,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,121 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,10 +1159,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1084,7 +1170,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,21 +1205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1151,9 +1222,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,94 +1250,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1258,56 +1346,56 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,22 +1444,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1380,12 +1483,12 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1401,50 +1504,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1512,7 +1639,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1792,28 +1919,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.88" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
     <col min="11" max="11" width="8.4" customWidth="1"/>
     <col min="12" max="14" width="6.2" customWidth="1"/>
-    <col min="18" max="18" width="17.1333333333333" customWidth="1"/>
+    <col min="18" max="18" width="17.13" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1861,7 +1988,7 @@
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -1877,39 +2004,39 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="22"/>
       <c r="F7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" ht="15.75" spans="6:19">
+    <row r="8" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="44" t="s">
+      <c r="Q8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1923,29 +2050,29 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="39" t="s">
+      <c r="J9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="44" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -1968,17 +2095,17 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="J10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6"/>
@@ -1990,19 +2117,19 @@
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="38" t="s">
+      <c r="J11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2016,20 +2143,20 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="31" t="s">
+      <c r="J12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="6"/>
@@ -2040,19 +2167,19 @@
       <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="40" t="s">
+      <c r="J13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2066,7 +2193,7 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6"/>
@@ -2077,7 +2204,7 @@
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="6"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2113,7 +2240,7 @@
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="6"/>
@@ -2131,7 +2258,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="6"/>
@@ -2149,7 +2276,7 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="6"/>
@@ -2164,13 +2291,13 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="18"/>
+      <c r="D24" s="22"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
@@ -2183,7 +2310,7 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="22"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
@@ -2199,7 +2326,7 @@
       <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2216,7 +2343,7 @@
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2236,7 +2363,7 @@
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="6"/>
@@ -2254,7 +2381,7 @@
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="6"/>
@@ -2272,10 +2399,10 @@
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="28" t="s">
+      <c r="D34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2283,7 +2410,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2292,7 +2419,7 @@
       <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2310,7 +2437,7 @@
       <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
@@ -2318,7 +2445,7 @@
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="18"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -2330,7 +2457,7 @@
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2347,7 +2474,7 @@
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
@@ -2364,12 +2491,12 @@
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2378,41 +2505,41 @@
       <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" spans="9:14">
-      <c r="I49" s="33" t="s">
+      <c r="D46" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14">
+      <c r="I49" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="35" t="s">
+      <c r="J49" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="36" t="s">
+      <c r="L49" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="35"/>
-      <c r="N49" s="41"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="46"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="27" t="s">
+      <c r="J50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="27" t="s">
+      <c r="L50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="27" t="s">
+      <c r="M50" s="32" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="11" t="s">
@@ -2426,24 +2553,24 @@
       <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="38" t="s">
+      <c r="J51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2452,25 +2579,25 @@
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="38" t="s">
+      <c r="J52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2478,19 +2605,19 @@
       <c r="I53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="38" t="s">
+      <c r="J53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2504,29 +2631,29 @@
       <c r="C54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="1:14">
+      <c r="J54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2536,25 +2663,25 @@
       <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="42" t="s">
+      <c r="J55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2568,7 +2695,7 @@
       <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2576,13 +2703,13 @@
       <c r="A58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2596,11 +2723,11 @@
       <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D60" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2609,6 +2736,9 @@
       </c>
       <c r="C62" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2621,7 +2751,7 @@
       <c r="C64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -2629,7 +2759,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2638,7 +2768,7 @@
       <c r="C66" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -2655,7 +2785,7 @@
       <c r="C67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -2672,7 +2802,7 @@
       <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -2699,6 +2829,310 @@
       </c>
       <c r="C72" s="6" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="L83" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="55"/>
+      <c r="N83" s="58"/>
+    </row>
+    <row r="84" spans="9:14">
+      <c r="I84" s="5"/>
+      <c r="J84" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14">
+      <c r="I86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="43"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="43"/>
+    </row>
+    <row r="88" spans="9:14">
+      <c r="I88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="43"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="37"/>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" ht="36" spans="1:3">
+      <c r="A99" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" ht="36" spans="1:3">
+      <c r="A100" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +3146,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D64 D66 D67 D68 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42">
@@ -2726,15 +3160,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
@@ -2746,101 +3180,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="22">
+        <v>108</v>
+      </c>
+      <c r="B3" s="27">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="23">
+        <v>112</v>
+      </c>
+      <c r="H3" s="28">
         <v>43317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="22">
+        <v>113</v>
+      </c>
+      <c r="B4" s="27">
         <v>43313</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="23">
+        <v>112</v>
+      </c>
+      <c r="H4" s="28">
         <v>43317</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="22">
+        <v>115</v>
+      </c>
+      <c r="B5" s="27">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="28">
+        <v>43323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="28">
+        <v>43322</v>
       </c>
     </row>
   </sheetData>
@@ -2853,15 +3316,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
@@ -2872,22 +3335,22 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.13" customWidth="1"/>
+    <col min="15" max="15" width="19.13" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -2900,17 +3363,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>103</v>
+      <c r="B2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2918,70 +3382,82 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>103</v>
+      <c r="B6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>113</v>
+      <c r="B8" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>115</v>
+      <c r="B10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -2991,11 +3467,15 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>113</v>
+      <c r="B12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -3005,11 +3485,15 @@
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>113</v>
+      <c r="B14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -3019,14 +3503,16 @@
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>103</v>
+      <c r="B16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -3036,16 +3522,20 @@
       <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
+      <c r="B18" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D6 D10 D12 D14 D18">
       <formula1>$O$7:$P$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3056,38 +3546,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="55.125" customWidth="1"/>
-    <col min="3" max="4" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="55.13" customWidth="1"/>
+    <col min="3" max="4" width="20.88" customWidth="1"/>
+    <col min="5" max="5" width="8.4" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="65.375" customWidth="1"/>
+    <col min="8" max="8" width="65.38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>7</v>
@@ -3096,68 +3587,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:4">
+    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="28.5" spans="1:4">
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="36" spans="1:5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="18">
         <v>2</v>
       </c>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>103</v>
+      <c r="E5" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" customHeight="1" spans="1:8">
@@ -3165,13 +3660,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3189,24 +3687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="59.875" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="59.88" customWidth="1"/>
+    <col min="3" max="3" width="16.13" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3222,19 +3720,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -3282,35 +3780,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.13" customWidth="1"/>
+    <col min="2" max="2" width="44.8" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.2" customWidth="1"/>
+    <col min="5" max="5" width="15.6" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3324,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
@@ -3333,74 +3831,83 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:4">
+    <row r="3" ht="72" spans="1:4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:4">
+    <row r="4" ht="36" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" ht="71.25" spans="1:4">
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="90" spans="1:5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:F7"/>
   <sheetViews>
@@ -3418,20 +3925,20 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.88" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.88" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.88" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3447,15 +3954,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3468,7 +3975,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="13320"/>
+    <workbookView windowWidth="28695" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>排期日期</t>
   </si>
@@ -383,6 +383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(9) 一保到位</t>
     </r>
     <r>
@@ -400,6 +407,9 @@
     <t>(10) 定时关闭贞爱订单</t>
   </si>
   <si>
+    <t>(11) 去掉A端团队列表的渠道号渲染</t>
+  </si>
+  <si>
     <t>项目节点管理</t>
   </si>
   <si>
@@ -594,9 +604,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -671,10 +681,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,11 +696,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,6 +726,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -724,17 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +777,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,36 +812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,14 +820,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,13 +847,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,169 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,26 +1161,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,6 +1178,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,26 +1249,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,152 +1260,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,9 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,7 +1646,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1919,28 +1926,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD104"/>
+  <dimension ref="A1:XFD106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="R93" sqref="R93"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.88" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.88" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
     <col min="11" max="11" width="8.4" customWidth="1"/>
     <col min="12" max="14" width="6.2" customWidth="1"/>
-    <col min="18" max="18" width="17.13" customWidth="1"/>
+    <col min="18" max="18" width="17.1333333333333" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1988,7 +1995,7 @@
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -2004,39 +2011,39 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="F7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="6:19">
+    <row r="8" ht="15.75" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="41" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="49" t="s">
+      <c r="Q8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2050,29 +2057,29 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="44" t="s">
+      <c r="J9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -2095,17 +2102,17 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6"/>
@@ -2117,19 +2124,19 @@
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="43" t="s">
+      <c r="J11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2143,20 +2150,20 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="36" t="s">
+      <c r="J12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="35" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="6"/>
@@ -2167,19 +2174,19 @@
       <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="45" t="s">
+      <c r="J13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="44" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2193,7 +2200,7 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6"/>
@@ -2204,7 +2211,7 @@
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="6"/>
-      <c r="J15" s="36"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2240,7 +2247,7 @@
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="6"/>
@@ -2258,7 +2265,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="6"/>
@@ -2276,7 +2283,7 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="6"/>
@@ -2291,13 +2298,13 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
@@ -2310,7 +2317,7 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
@@ -2326,7 +2333,7 @@
       <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2343,7 +2350,7 @@
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2363,7 +2370,7 @@
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="6"/>
@@ -2381,7 +2388,7 @@
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="6"/>
@@ -2399,10 +2406,10 @@
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="33" t="s">
+      <c r="D34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2410,7 +2417,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2419,7 +2426,7 @@
       <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2437,7 +2444,7 @@
       <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
@@ -2445,7 +2452,7 @@
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -2457,7 +2464,7 @@
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2474,7 +2481,7 @@
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="29" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
@@ -2491,12 +2498,12 @@
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2505,41 +2512,41 @@
       <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="9:14">
-      <c r="I49" s="38" t="s">
+      <c r="D46" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="9:14">
+      <c r="I49" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="40" t="s">
+      <c r="J49" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="46"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="45"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="32" t="s">
+      <c r="J50" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="32" t="s">
+      <c r="L50" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="32" t="s">
+      <c r="M50" s="31" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="11" t="s">
@@ -2553,24 +2560,24 @@
       <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="43" t="s">
+      <c r="J51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2579,25 +2586,25 @@
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="43" t="s">
+      <c r="J52" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2605,19 +2612,19 @@
       <c r="I53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="43" t="s">
+      <c r="J53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2631,29 +2638,29 @@
       <c r="C54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="J54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:14">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2663,25 +2670,25 @@
       <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="47" t="s">
+      <c r="J55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2695,7 +2702,7 @@
       <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2703,13 +2710,13 @@
       <c r="A58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2723,7 +2730,7 @@
       <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2737,7 +2744,7 @@
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2751,7 +2758,7 @@
       <c r="C64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -2759,7 +2766,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2768,7 +2775,7 @@
       <c r="C66" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -2785,7 +2792,7 @@
       <c r="C67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -2802,7 +2809,7 @@
       <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -2838,7 +2845,7 @@
       <c r="C74" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2852,7 +2859,7 @@
       <c r="C76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2860,13 +2867,13 @@
       <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2880,7 +2887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" ht="15.75" spans="1:14">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2890,33 +2897,33 @@
       <c r="C83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I83" s="53" t="s">
+      <c r="I83" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J83" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="55" t="s">
+      <c r="J83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="L83" s="56" t="s">
+      <c r="L83" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="55"/>
-      <c r="N83" s="58"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="57"/>
     </row>
     <row r="84" spans="9:14">
       <c r="I84" s="5"/>
-      <c r="J84" s="32" t="s">
+      <c r="J84" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="32" t="s">
+      <c r="K84" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="32" t="s">
+      <c r="L84" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M84" s="32" t="s">
+      <c r="M84" s="31" t="s">
         <v>17</v>
       </c>
       <c r="N84" s="11" t="s">
@@ -2936,19 +2943,19 @@
       <c r="I85" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J85" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N85" s="43" t="s">
+      <c r="J85" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2956,15 +2963,15 @@
       <c r="I86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J86" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K86" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="43"/>
+      <c r="J86" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="42"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
@@ -2979,39 +2986,39 @@
       <c r="I87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M87" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N87" s="43"/>
+      <c r="J87" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="42"/>
     </row>
     <row r="88" spans="9:14">
       <c r="I88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J88" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K88" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M88" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N88" s="43"/>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="J88" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" ht="15.75" spans="1:14">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3024,20 +3031,20 @@
       <c r="I89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J89" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K89" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" s="37"/>
-      <c r="N89" s="47"/>
+      <c r="J89" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="36"/>
+      <c r="N89" s="46"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="51" t="s">
+      <c r="A91" s="50" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -3047,8 +3054,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="51" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -3057,9 +3064,12 @@
       <c r="C92" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D92" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -3069,8 +3079,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="51" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -3079,9 +3089,10 @@
       <c r="C95" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D95" s="21"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="51" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -3091,8 +3102,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="36" spans="1:3">
-      <c r="A99" s="51" t="s">
+    <row r="99" ht="28.5" spans="1:3">
+      <c r="A99" s="50" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -3102,8 +3113,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" ht="36" spans="1:3">
-      <c r="A100" s="51" t="s">
+    <row r="100" ht="28.5" spans="1:3">
+      <c r="A100" s="50" t="s">
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -3114,7 +3125,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -3124,7 +3135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -3132,6 +3143,20 @@
         <v>23</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3146,7 +3171,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D92 D95 D104 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42">
@@ -3160,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3168,7 +3193,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
@@ -3180,129 +3205,129 @@
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="27">
+        <v>109</v>
+      </c>
+      <c r="B3" s="26">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="28">
+        <v>113</v>
+      </c>
+      <c r="H3" s="27">
         <v>43317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="26">
+        <v>43313</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="27">
-        <v>43313</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>43317</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="27">
+        <v>116</v>
+      </c>
+      <c r="B5" s="26">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="28">
+        <v>119</v>
+      </c>
+      <c r="H5" s="27">
         <v>43323</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="28">
+        <v>119</v>
+      </c>
+      <c r="H6" s="27">
         <v>43322</v>
       </c>
     </row>
@@ -3316,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -3324,7 +3349,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
@@ -3335,22 +3360,22 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="16.13" customWidth="1"/>
-    <col min="15" max="15" width="19.13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3363,18 +3388,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3382,82 +3407,82 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -3467,15 +3492,15 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -3485,15 +3510,15 @@
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -3503,16 +3528,16 @@
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -3522,15 +3547,15 @@
       <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -3554,31 +3579,31 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="55.13" customWidth="1"/>
-    <col min="3" max="4" width="20.88" customWidth="1"/>
+    <col min="2" max="2" width="55.1333333333333" customWidth="1"/>
+    <col min="3" max="4" width="20.8833333333333" customWidth="1"/>
     <col min="5" max="5" width="8.4" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="65.38" customWidth="1"/>
+    <col min="8" max="8" width="65.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>7</v>
@@ -3592,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -3604,55 +3629,55 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="36" spans="1:5">
+    <row r="3" s="6" customFormat="1" ht="28.5" spans="1:5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="18">
+        <v>145</v>
+      </c>
+      <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="18">
+        <v>149</v>
+      </c>
+      <c r="D5" s="17">
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" customHeight="1" spans="1:8">
@@ -3660,10 +3685,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -3687,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -3695,16 +3720,16 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="59.88" customWidth="1"/>
-    <col min="3" max="3" width="16.13" customWidth="1"/>
+    <col min="2" max="2" width="59.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3720,19 +3745,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -3780,7 +3805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3788,9 +3813,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.13" customWidth="1"/>
+    <col min="1" max="1" width="5.13333333333333" customWidth="1"/>
     <col min="2" max="2" width="44.8" customWidth="1"/>
     <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.2" customWidth="1"/>
@@ -3799,16 +3824,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3822,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
@@ -3831,29 +3856,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:4">
+    <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="36" spans="1:5">
+    <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -3862,15 +3887,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:4">
+    <row r="5" ht="28.5" spans="1:4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -3881,10 +3906,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
@@ -3893,15 +3918,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" ht="90" spans="1:5">
+    <row r="7" ht="71.25" spans="1:5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
@@ -3917,7 +3942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F7"/>
   <sheetViews>
@@ -3925,20 +3950,20 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.88" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.88" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.88" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3954,15 +3979,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3975,7 +4000,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="28660" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
     <sheet name="项目节点管理" sheetId="5" r:id="rId2"/>
     <sheet name="唐僧保3.3" sheetId="2" r:id="rId3"/>
     <sheet name="唐僧保3.4" sheetId="7" r:id="rId4"/>
-    <sheet name="深爱保2.0" sheetId="3" r:id="rId5"/>
-    <sheet name="深爱保2.1" sheetId="6" r:id="rId6"/>
+    <sheet name="深爱保2.1" sheetId="6" r:id="rId5"/>
+    <sheet name="深爱保2.0" sheetId="3" r:id="rId6"/>
     <sheet name="开发团队" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>排期日期</t>
   </si>
@@ -346,21 +346,33 @@
     <t>(1) 康乐B产品前端投保全流程开发工作</t>
   </si>
   <si>
+    <t>需要老石沟通，将对接推至我司对接</t>
+  </si>
+  <si>
     <t>(2) 康乐C产品前端投保全流程开发工作</t>
   </si>
   <si>
     <t>周三至周四</t>
   </si>
   <si>
+    <t>提至测试阶段</t>
+  </si>
+  <si>
     <t>(3) 乐享产品前端投保全流程开发工作</t>
   </si>
   <si>
+    <t>乐享基础班对接OK，家庭版待后端接口支持</t>
+  </si>
+  <si>
     <t>(4) 康乐、乐享产品前端接口以及联调</t>
   </si>
   <si>
     <t>周一至周四</t>
   </si>
   <si>
+    <t>乐享家庭版需要改动：支持多个被保人</t>
+  </si>
+  <si>
     <t>(5) 结算明细里保费下方加一行投保人的显示 - 前端</t>
   </si>
   <si>
@@ -377,6 +389,9 @@
   </si>
   <si>
     <t>(7) 客户体检完可支付时通知提醒代理人，让代理人指引客户付费</t>
+  </si>
+  <si>
+    <t>待测试验证</t>
   </si>
   <si>
     <t>(8) 慕再增值服务，一个帐号有几张保单就可以享受几次服务，可以自由选择某一张保单的服务 - 后端接口</t>
@@ -388,7 +403,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(9) 一保到位</t>
     </r>
@@ -404,12 +418,90 @@
     </r>
   </si>
   <si>
+    <t>对接至标准版支付流程步骤</t>
+  </si>
+  <si>
     <t>(10) 定时关闭贞爱订单</t>
   </si>
   <si>
     <t>(11) 去掉A端团队列表的渠道号渲染</t>
   </si>
   <si>
+    <t>(12) A、C端微信提醒通知</t>
+  </si>
+  <si>
+    <t>待核对测试</t>
+  </si>
+  <si>
+    <t>(13) 神测数据收尾工作</t>
+  </si>
+  <si>
+    <t>(14) 国富定寿对接文档</t>
+  </si>
+  <si>
+    <t>过目国富对接文档</t>
+  </si>
+  <si>
+    <t>2018年08月20日 至 2018年08月24日</t>
+  </si>
+  <si>
+    <t>(1)核对提醒通知(A&amp;C端)</t>
+  </si>
+  <si>
+    <t>缺省代理人指引客户支付页面</t>
+  </si>
+  <si>
+    <t>立灿</t>
+  </si>
+  <si>
+    <t>(2) 康乐e生B后端接口</t>
+  </si>
+  <si>
+    <t>周一提醒老石推进复星</t>
+  </si>
+  <si>
+    <t>(3) 系统支持多个被保人 - 唐僧保接口</t>
+  </si>
+  <si>
+    <t>乐享e生家庭版多个被保人</t>
+  </si>
+  <si>
+    <t>(3) 系统支持多个被保人 - 深爱保接口</t>
+  </si>
+  <si>
+    <t>(3) 系统支持多个被保人 - 有关被保人页面修改</t>
+  </si>
+  <si>
+    <t>页面布局需要改动 - 设计</t>
+  </si>
+  <si>
+    <t>(3) 所有对接的产品核保报文修改</t>
+  </si>
+  <si>
+    <t>定寿、康惠保、定惠保</t>
+  </si>
+  <si>
+    <t>更新唐僧保、深爱保</t>
+  </si>
+  <si>
+    <t>冯立灿、彭帅</t>
+  </si>
+  <si>
+    <t>一保到位 - 祯爱定寿</t>
+  </si>
+  <si>
+    <t>周一、周四、周五</t>
+  </si>
+  <si>
+    <t>已经在付款流程，该周对完标准版整个流程</t>
+  </si>
+  <si>
+    <t>深爱保付款通知 - 代理人指导客户付款页面</t>
+  </si>
+  <si>
+    <t>乐享e生家庭版核保页面</t>
+  </si>
+  <si>
     <t>项目节点管理</t>
   </si>
   <si>
@@ -470,6 +562,12 @@
     <t>深爱保V2.0</t>
   </si>
   <si>
+    <t>深爱保bug修复</t>
+  </si>
+  <si>
+    <t>修复登录失败引导、去除团队渠道号、认证信息入库</t>
+  </si>
+  <si>
     <t>序项</t>
   </si>
   <si>
@@ -563,25 +661,34 @@
     <t>2018.8.10</t>
   </si>
   <si>
+    <t>小雨伞cps合作数据回调</t>
+  </si>
+  <si>
+    <t>提醒通知</t>
+  </si>
+  <si>
+    <t>小雨伞五款cps合作产品的详情页面 - A端</t>
+  </si>
+  <si>
+    <t>增强版客户投保完成后，增加提示客户需要准备什么财务资料，而不是直接跳唐僧保个人中心，并且通知代理人客户应准备什么资料</t>
+  </si>
+  <si>
+    <t>推进页面设计</t>
+  </si>
+  <si>
+    <t>客户体检完可支付时通知提醒代理人，让代理人指引客户付费</t>
+  </si>
+  <si>
+    <t>启用新二级域名，例如s.yi-insurance.com，旧域名可以继续使用，避免被普通客户找到深爱保</t>
+  </si>
+  <si>
+    <t>结算明细里保费下方加一行投保人的显示</t>
+  </si>
+  <si>
+    <t>希望点击“暂不可提现”能增加进入“未结算明细”，甚至增加未结算原因，例如原因可以是未回访（通过读取回访日期是否为空）、未到结算日期（通过计算是否过犹豫期是否回访综合判定）、结算中（应结算时显示）</t>
+  </si>
+  <si>
     <t>此版本为深爱保微信网页版</t>
-  </si>
-  <si>
-    <t>小雨伞五款cps合作产品的详情页面 - A端</t>
-  </si>
-  <si>
-    <t>增强版客户投保完成后，增加提示客户需要准备什么财务资料，而不是直接跳唐僧保个人中心，并且通知代理人客户应准备什么资料</t>
-  </si>
-  <si>
-    <t>客户体检完可支付时通知提醒代理人，让代理人指引客户付费</t>
-  </si>
-  <si>
-    <t>启用新二级域名，例如s.yi-insurance.com，旧域名可以继续使用，避免被普通客户找到深爱保</t>
-  </si>
-  <si>
-    <t>结算明细里保费下方加一行投保人的显示</t>
-  </si>
-  <si>
-    <t>希望点击“暂不可提现”能增加进入“未结算明细”，甚至增加未结算原因，例如原因可以是未回访（通过读取回访日期是否为空）、未到结算日期（通过计算是否过犹豫期是否回访综合判定）、结算中（应结算时显示）</t>
   </si>
   <si>
     <t>3+2+1模式</t>
@@ -604,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +737,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -681,51 +795,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -734,23 +803,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +826,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -780,6 +841,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -787,9 +886,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,15 +902,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,109 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +1015,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,37 +1105,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1276,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,6 +1296,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1193,26 +1331,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,21 +1350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1255,157 +1358,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,10 +1568,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1466,22 +1583,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1490,12 +1607,12 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1511,49 +1628,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1565,16 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1646,7 +1763,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1926,28 +2043,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD106"/>
+  <dimension ref="A1:XFD138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="69.8" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6" style="6" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.8833333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="15.6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.4" customWidth="1"/>
+    <col min="6" max="6" width="15.6" style="6" customWidth="1"/>
+    <col min="7" max="7" width="44.2" customWidth="1"/>
     <col min="9" max="9" width="8.4" customWidth="1"/>
     <col min="10" max="10" width="6.2" customWidth="1"/>
     <col min="11" max="11" width="8.4" customWidth="1"/>
     <col min="12" max="14" width="6.2" customWidth="1"/>
-    <col min="18" max="18" width="17.1333333333333" customWidth="1"/>
+    <col min="18" max="18" width="17.13" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1995,7 +2112,7 @@
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -2011,39 +2128,39 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="F7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" ht="15.75" spans="6:19">
+    <row r="8" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="48" t="s">
+      <c r="Q8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2057,29 +2174,29 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="43" t="s">
+      <c r="J9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="44" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="8" t="s">
@@ -2102,17 +2219,17 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6"/>
@@ -2124,19 +2241,19 @@
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="42" t="s">
+      <c r="J11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2150,20 +2267,20 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="35" t="s">
+      <c r="J12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="6"/>
@@ -2174,19 +2291,19 @@
       <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="44" t="s">
+      <c r="J13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2200,7 +2317,7 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6"/>
@@ -2211,7 +2328,7 @@
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="6"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2247,7 +2364,7 @@
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="6"/>
@@ -2265,7 +2382,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="6"/>
@@ -2283,7 +2400,7 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="6"/>
@@ -2298,13 +2415,13 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
@@ -2317,7 +2434,7 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="7:7">
@@ -2333,7 +2450,7 @@
       <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2350,7 +2467,7 @@
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2370,7 +2487,7 @@
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="6"/>
@@ -2388,7 +2505,7 @@
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="6"/>
@@ -2406,10 +2523,10 @@
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="32" t="s">
+      <c r="D34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2417,7 +2534,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2426,7 +2543,7 @@
       <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2444,7 +2561,7 @@
       <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
@@ -2452,7 +2569,7 @@
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="21"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -2464,7 +2581,7 @@
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
@@ -2481,7 +2598,7 @@
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G42" t="s">
@@ -2498,12 +2615,12 @@
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2512,41 +2629,41 @@
       <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" spans="9:14">
-      <c r="I49" s="37" t="s">
+      <c r="D46" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14">
+      <c r="I49" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="39" t="s">
+      <c r="J49" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="40" t="s">
+      <c r="L49" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="39"/>
-      <c r="N49" s="45"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="46"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="31" t="s">
+      <c r="L50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="32" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="11" t="s">
@@ -2560,24 +2677,24 @@
       <c r="I51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="42" t="s">
+      <c r="J51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2586,25 +2703,25 @@
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="42" t="s">
+      <c r="J52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2612,19 +2729,19 @@
       <c r="I53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="42" t="s">
+      <c r="J53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2638,29 +2755,29 @@
       <c r="C54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="1:14">
+      <c r="J54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2670,25 +2787,25 @@
       <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="46" t="s">
+      <c r="J55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2702,7 +2819,7 @@
       <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2710,13 +2827,13 @@
       <c r="A58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2730,7 +2847,7 @@
       <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2744,7 +2861,7 @@
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2758,7 +2875,7 @@
       <c r="C64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -2766,7 +2883,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2775,7 +2892,7 @@
       <c r="C66" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -2792,7 +2909,7 @@
       <c r="C67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -2809,7 +2926,7 @@
       <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -2845,7 +2962,7 @@
       <c r="C74" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2859,7 +2976,7 @@
       <c r="C76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2867,13 +2984,13 @@
       <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2887,7 +3004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:14">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2897,33 +3014,39 @@
       <c r="C83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I83" s="52" t="s">
+      <c r="D83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J83" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="54" t="s">
+      <c r="J83" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="L83" s="55" t="s">
+      <c r="L83" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="54"/>
-      <c r="N83" s="57"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="58"/>
     </row>
     <row r="84" spans="9:14">
       <c r="I84" s="5"/>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="31" t="s">
+      <c r="K84" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="31" t="s">
+      <c r="L84" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M84" s="31" t="s">
+      <c r="M84" s="32" t="s">
         <v>17</v>
       </c>
       <c r="N84" s="11" t="s">
@@ -2932,30 +3055,36 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>89</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J85" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N85" s="42" t="s">
+      <c r="J85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2963,89 +3092,109 @@
       <c r="I86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J86" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K86" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="42"/>
+      <c r="J86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" s="43" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M87" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N87" s="42"/>
+      <c r="J87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="43" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="9:14">
       <c r="I88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J88" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K88" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M88" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N88" s="42"/>
-    </row>
-    <row r="89" ht="15.75" spans="1:14">
+      <c r="J88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="43"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J89" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K89" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" s="36"/>
-      <c r="N89" s="46"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="50" t="s">
-        <v>91</v>
+      <c r="J89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="37"/>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>31</v>
@@ -3053,10 +3202,13 @@
       <c r="C91" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D91" s="22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="50" t="s">
-        <v>92</v>
+      <c r="A92" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>23</v>
@@ -3064,58 +3216,72 @@
       <c r="C92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="50" t="s">
-        <v>93</v>
+      <c r="D92" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="50" t="s">
-        <v>94</v>
+      <c r="A95" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="51" t="s">
-        <v>96</v>
+      <c r="D95" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" ht="28.5" spans="1:3">
-      <c r="A99" s="50" t="s">
-        <v>97</v>
+      <c r="D97" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" ht="36" spans="1:4">
+      <c r="A99" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="28.5" spans="1:3">
-      <c r="A100" s="50" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="36" spans="1:4">
+      <c r="A100" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>10</v>
@@ -3123,10 +3289,13 @@
       <c r="C100" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="30" t="s">
-        <v>98</v>
+      <c r="D100" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>23</v>
@@ -3134,10 +3303,16 @@
       <c r="C102" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="D102" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>23</v>
@@ -3145,19 +3320,334 @@
       <c r="C104" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D104" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14">
+      <c r="D120" s="30"/>
+      <c r="G120" s="16"/>
+      <c r="I120" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J120" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="L120" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" s="55"/>
+      <c r="N120" s="58"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M121" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="22"/>
+      <c r="I122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N122" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="9:14">
+      <c r="I123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J123" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" s="57"/>
+      <c r="L123" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123" s="57"/>
+      <c r="N123" s="43"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="30"/>
+      <c r="G124" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
+      <c r="L124" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="57"/>
+      <c r="N124" s="43"/>
+    </row>
+    <row r="125" spans="9:14">
+      <c r="I125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
+      <c r="L125" s="57"/>
+      <c r="M125" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="30"/>
+      <c r="G126" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="37"/>
+      <c r="K126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="37"/>
+      <c r="M126" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N126" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3171,10 +3661,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D92 D95 D104 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D85 D91 D92 D94 D95 D97 D99 D100 D102 D104 D106 D110 D122 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42 D83 D87 D89 D108 D120 D124 D126">
       <formula1>$Q$8:$S$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3185,150 +3675,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
     <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.2" customWidth="1"/>
+    <col min="4" max="4" width="57.6" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
     <col min="6" max="7" width="10.6" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="26">
+        <v>140</v>
+      </c>
+      <c r="B3" s="27">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="27">
+        <v>144</v>
+      </c>
+      <c r="H3" s="28">
         <v>43317</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="26">
+        <v>145</v>
+      </c>
+      <c r="B4" s="27">
         <v>43313</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="27">
+        <v>144</v>
+      </c>
+      <c r="H4" s="28">
         <v>43317</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="26">
+        <v>147</v>
+      </c>
+      <c r="B5" s="27">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="27">
+        <v>150</v>
+      </c>
+      <c r="H5" s="28">
         <v>43323</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="27">
+        <v>150</v>
+      </c>
+      <c r="H6" s="28">
         <v>43322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="27">
+        <v>43329</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="28">
+        <v>43331</v>
       </c>
     </row>
   </sheetData>
@@ -3341,15 +3854,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="64.4" customWidth="1"/>
@@ -3360,22 +3873,22 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="16.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.1333333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.13" customWidth="1"/>
+    <col min="15" max="15" width="19.13" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3388,18 +3901,18 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>119</v>
+      <c r="B2" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3407,82 +3920,82 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+        <v>162</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>119</v>
+      <c r="B6" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>119</v>
+      <c r="B8" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -3492,15 +4005,15 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>133</v>
+      <c r="B12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -3510,15 +4023,15 @@
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>133</v>
+      <c r="B14" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -3528,16 +4041,16 @@
       <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
-        <v>133</v>
+      <c r="B16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -3547,15 +4060,15 @@
       <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>133</v>
+      <c r="B18" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3571,39 +4084,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="55.1333333333333" customWidth="1"/>
-    <col min="3" max="4" width="20.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.4" customWidth="1"/>
+    <col min="2" max="2" width="67.4" customWidth="1"/>
+    <col min="3" max="4" width="20.88" customWidth="1"/>
+    <col min="5" max="5" width="10.6" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="65.3833333333333" customWidth="1"/>
+    <col min="8" max="8" width="65.38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>7</v>
@@ -3617,94 +4130,119 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="28.5" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="36" spans="1:5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="B4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="B5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>119</v>
+      <c r="E5" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" customHeight="1" spans="1:8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" s="6" customFormat="1"/>
-    <row r="8" s="6" customFormat="1"/>
+    <row r="7" s="6" customFormat="1" spans="1:5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="2:5">
+      <c r="B8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="9" s="6" customFormat="1"/>
     <row r="10" s="6" customFormat="1"/>
     <row r="11" s="6" customFormat="1"/>
     <row r="12" s="6" customFormat="1"/>
+    <row r="18" spans="2:5">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3712,7 +4250,148 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.13" customWidth="1"/>
+    <col min="2" max="2" width="44.8" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.2" customWidth="1"/>
+    <col min="5" max="5" width="15.6" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="13">
+        <v>43318</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:6">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:4">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" ht="90" spans="1:5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -3720,16 +4399,16 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="59.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="59.88" customWidth="1"/>
+    <col min="3" max="3" width="16.13" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3745,19 +4424,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -3804,145 +4483,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="5.13333333333333" customWidth="1"/>
-    <col min="2" max="2" width="44.8" customWidth="1"/>
-    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.2" customWidth="1"/>
-    <col min="5" max="5" width="15.6" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="13">
-        <v>43318</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:5">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" ht="71.25" spans="1:5">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:F7"/>
   <sheetViews>
@@ -3950,20 +4492,20 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.88" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.88" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.88" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3979,15 +4521,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4000,7 +4542,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理工具文档.xlsx
+++ b/项目管理工具文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>排期日期</t>
   </si>
@@ -178,25 +178,7 @@
     <t>急|已更新线上</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(13) 迁移移动端官网至</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>120.79.218.236</t>
-    </r>
+    <t>(13) 迁移移动端官网至120.79.218.236</t>
   </si>
   <si>
     <t>已迁移</t>
@@ -223,25 +205,7 @@
     <t>(18) 一保到位 - api加解密模块</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(19) CDN资源服务器搬迁至</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>120.79.218.236</t>
-    </r>
+    <t>(19) CDN资源服务器搬迁至120.79.218.236</t>
   </si>
   <si>
     <t>已排期</t>
@@ -277,34 +241,7 @@
     <t>延迟至周三</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(7) 产品以及购买流程页面平台化之</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">产品详情页面 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 前端页面开发</t>
-    </r>
+    <t>(7) 产品以及购买流程页面平台化之产品详情页面 - 前端页面开发</t>
   </si>
   <si>
     <t>暂定</t>
@@ -397,25 +334,7 @@
     <t>(8) 慕再增值服务，一个帐号有几张保单就可以享受几次服务，可以自由选择某一张保单的服务 - 后端接口</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(9) 一保到位</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准版对接接口</t>
-    </r>
+    <t>(9) 一保到位标准版对接接口</t>
   </si>
   <si>
     <t>对接至标准版支付流程步骤</t>
@@ -445,7 +364,7 @@
     <t>2018年08月20日 至 2018年08月24日</t>
   </si>
   <si>
-    <t>(1)核对提醒通知(A&amp;C端)</t>
+    <t>(1) 核对提醒通知(A&amp;C端)</t>
   </si>
   <si>
     <t>缺省代理人指引客户支付页面</t>
@@ -454,52 +373,100 @@
     <t>立灿</t>
   </si>
   <si>
-    <t>(2) 康乐e生B后端接口</t>
+    <t>(2) 核对推广费结算</t>
+  </si>
+  <si>
+    <t>该功能在周二上</t>
+  </si>
+  <si>
+    <t>(3) 康乐e生B款api对接</t>
   </si>
   <si>
     <t>周一提醒老石推进复星</t>
   </si>
   <si>
-    <t>(3) 系统支持多个被保人 - 唐僧保接口</t>
+    <t>(4) 康乐e生C款 bug修改</t>
+  </si>
+  <si>
+    <t>(5) 定惠保、康乐三级市联使用平台化统一接口</t>
+  </si>
+  <si>
+    <t>(5) 复星乐享e生使用平台化接口</t>
+  </si>
+  <si>
+    <t>地址接口经重新统一(统一一个接口返回省市区)</t>
+  </si>
+  <si>
+    <t>(6) 系统支持多个被保人 - 唐僧保接口</t>
   </si>
   <si>
     <t>乐享e生家庭版多个被保人</t>
   </si>
   <si>
-    <t>(3) 系统支持多个被保人 - 深爱保接口</t>
-  </si>
-  <si>
-    <t>(3) 系统支持多个被保人 - 有关被保人页面修改</t>
+    <t>(6) 系统支持多个被保人 - 深爱保接口</t>
+  </si>
+  <si>
+    <t>(6) 系统支持多个被保人 - 有关被保人页面修改</t>
   </si>
   <si>
     <t>页面布局需要改动 - 设计</t>
   </si>
   <si>
-    <t>(3) 所有对接的产品核保报文修改</t>
+    <t>(7) 所有对接的产品核保报文修改</t>
   </si>
   <si>
     <t>定寿、康惠保、定惠保</t>
   </si>
   <si>
-    <t>更新唐僧保、深爱保</t>
+    <t>(8) 康乐e生B款 - 前端页面和接口对接</t>
+  </si>
+  <si>
+    <t>(9) 更新唐僧保、深爱保</t>
   </si>
   <si>
     <t>冯立灿、彭帅</t>
   </si>
   <si>
-    <t>一保到位 - 祯爱定寿</t>
+    <t>(10) 深爱保付款通知 - 代理人指导客户付款页面</t>
+  </si>
+  <si>
+    <t>(11) 乐享e生家庭版核保页面</t>
+  </si>
+  <si>
+    <t>(12) 产品详情页之数据结构构建</t>
+  </si>
+  <si>
+    <t>(13) 产品详情页之管理端页面开发</t>
+  </si>
+  <si>
+    <t>周二、周四、周五</t>
+  </si>
+  <si>
+    <t>(14) 保额计算器页面开发</t>
+  </si>
+  <si>
+    <t>周二至周三</t>
+  </si>
+  <si>
+    <t>(15) 保额计算器接口</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>(16) 产品购买结果页面 - 成功|失败</t>
+  </si>
+  <si>
+    <t>需要推进设计设计</t>
+  </si>
+  <si>
+    <t>(17) 一保到位 - 祯爱定寿</t>
   </si>
   <si>
     <t>周一、周四、周五</t>
   </si>
   <si>
     <t>已经在付款流程，该周对完标准版整个流程</t>
-  </si>
-  <si>
-    <t>深爱保付款通知 - 代理人指导客户付款页面</t>
-  </si>
-  <si>
-    <t>乐享e生家庭版核保页面</t>
   </si>
   <si>
     <t>项目节点管理</t>
@@ -716,7 +683,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,19 +904,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2045,10 +1999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD138"/>
+  <dimension ref="A1:XFD155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3190,7 +3144,9 @@
         <v>12</v>
       </c>
       <c r="M89" s="37"/>
-      <c r="N89" s="47"/>
+      <c r="N89" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="51" t="s">
@@ -3475,49 +3431,68 @@
       <c r="J123" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K123" s="57"/>
+      <c r="K123" s="57" t="s">
+        <v>12</v>
+      </c>
       <c r="L123" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M123" s="57"/>
-      <c r="N123" s="43"/>
+      <c r="M123" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="43" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>116</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="30"/>
-      <c r="G124" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
         <v>117</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
+      <c r="J124" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K124" s="57" t="s">
+        <v>12</v>
+      </c>
       <c r="L124" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M124" s="57"/>
-      <c r="N124" s="43"/>
+      <c r="M124" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N124" s="43" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="125" spans="9:14">
       <c r="I125" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
-      <c r="L125" s="57"/>
+      <c r="J125" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" s="57" t="s">
+        <v>12</v>
+      </c>
       <c r="M125" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N125" s="57" t="s">
+      <c r="N125" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3526,10 +3501,10 @@
         <v>118</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D126" s="30"/>
       <c r="G126" s="16" t="s">
@@ -3538,27 +3513,20 @@
       <c r="I126" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J126" s="37"/>
-      <c r="K126" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" s="37"/>
-      <c r="M126" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N126" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>14</v>
+      <c r="J126" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M126" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N126" s="45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3566,88 +3534,216 @@
         <v>120</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>123</v>
-      </c>
       <c r="B130" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G130" t="s">
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="B133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D133" s="30"/>
+      <c r="G133" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="6" t="s">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
-        <v>127</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>129</v>
+      <c r="B135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>131</v>
-      </c>
-      <c r="B138" s="6" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C145" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="G151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3760,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D18 D19 D20 D24 D25 D26 D27 D28 D29 D34 D36 D44 D46 D52 D54 D55 D57 D58 D60 D62 D64 D66 D67 D68 D74 D76 D78 D85 D91 D92 D94 D95 D97 D99 D100 D102 D104 D106 D110 D122 D8:D11 D15:D17 D21:D23 D31:D32 D38:D39">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42 D83 D87 D89 D108 D120 D124 D126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D40 D42 D83 D87 D89 D108 D120 D126 D133">
       <formula1>$Q$8:$S$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3696,7 +3792,7 @@
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3708,48 +3804,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B3" s="27">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H3" s="28">
         <v>43317</v>
@@ -3757,22 +3853,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B4" s="27">
         <v>43313</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H4" s="28">
         <v>43317</v>
@@ -3780,22 +3876,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B5" s="27">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H5" s="28">
         <v>43323</v>
@@ -3803,19 +3899,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H6" s="28">
         <v>43322</v>
@@ -3823,22 +3919,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B7" s="27">
         <v>43329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H7" s="28">
         <v>43331</v>
@@ -3879,16 +3975,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -3902,17 +3998,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3920,23 +4016,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3944,22 +4040,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3967,18 +4063,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3986,16 +4082,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -4006,14 +4102,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -4024,14 +4120,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -4042,15 +4138,15 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -4061,14 +4157,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4104,19 +4200,19 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>7</v>
@@ -4130,16 +4226,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="36" spans="1:5">
@@ -4147,16 +4243,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D3" s="18">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:8">
@@ -4164,16 +4260,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
@@ -4183,16 +4279,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" customHeight="1" spans="1:8">
@@ -4200,16 +4296,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -4219,15 +4315,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -4270,16 +4366,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -4293,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C2" s="13">
         <v>43318</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:6">
@@ -4307,16 +4403,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:5">
@@ -4324,16 +4420,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:4">
@@ -4341,10 +4437,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -4355,16 +4451,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="90" spans="1:5">
@@ -4372,16 +4468,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4424,19 +4520,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -4505,7 +4601,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4521,15 +4617,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4542,7 +4638,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:6">
